--- a/microservices/auth_service_cus/data/cusAccList.xlsx
+++ b/microservices/auth_service_cus/data/cusAccList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,42 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cnpm123</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$2b$12$LPecOHITkcuX4xGBVzaXlOwWeeskoOoZMbifUpTu2w8/lbQxJti6y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ab2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$2b$12$lfsqHeWhPQNYMEK7OSk4DeYA4w1d9glcETSxrVgU19DC3CnU9kunG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>phonggoldz1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$2b$12$c3iOul9SjEvfpMN1Rqm/S.XWNImq4V1A9qVOyCJ.DYWZkzCks6YzC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/auth_service_cus/data/cusAccList.xlsx
+++ b/microservices/auth_service_cus/data/cusAccList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>phong</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$2b$12$NV1rQL7i9Ggfd6aWk42ax.ltm0bKvbethXCa.FK648r.HVDxJhtF2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
